--- a/BSDT-statistical-analysis/media/ID_36_uploads/temporary_uploads/test2.xlsx
+++ b/BSDT-statistical-analysis/media/ID_36_uploads/temporary_uploads/test2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,37 +992,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hasan</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18–30</t>
+          <t>Below 18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Male </t>
+          <t xml:space="preserve">Female </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Single  </t>
+          <t xml:space="preserve">Married  </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>businessman</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t xml:space="preserve">Secondary  </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">With friends/others  </t>
+          <t xml:space="preserve">With family  </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes, several  </t>
+          <t xml:space="preserve">Yes, one or two  </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rarely  </t>
+          <t xml:space="preserve">Often </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Family or friends suggested  </t>
+          <t xml:space="preserve">Other: </t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Job loss or financial stress  </t>
+          <t xml:space="preserve">Loss of a loved one  ; Health problems  </t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1069,32 +1069,32 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Occasionally</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Occasionally</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>Not at all</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Not at all</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
           <t xml:space="preserve">Several days </t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Not at all</t>
+          <t>More than half the days</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1104,22 +1104,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Not at all</t>
+          <t>More than half the days</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Not at all</t>
+          <t>Nearly every day</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Not at all</t>
+          <t xml:space="preserve">Several days </t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Not at all</t>
+          <t xml:space="preserve">Several days </t>
         </is>
       </c>
       <c r="AC5" t="inlineStr"/>
@@ -1127,7 +1127,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zarek Wajeb</t>
+          <t>temp1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>student</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1157,22 +1157,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alone  </t>
+          <t xml:space="preserve">With family  </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sometimes</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes, one or two  </t>
+          <t>No</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes </t>
+          <t>No</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1182,19 +1182,15 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Concern about my own feelings  </t>
+          <t xml:space="preserve">Referred by doctor/therapist  </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Relationship problems  ; Job loss or financial stress  ; Loneliness or isolation  </t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Chronic pain (e.g., back, joints)</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Health problems  ; Job loss or financial stress  </t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>No</t>
@@ -1213,47 +1209,47 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Regularly </t>
+          <t>No</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>More than half the days</t>
+          <t>Not at all</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>More than half the days</t>
+          <t>Not at all</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Nearly every day</t>
+          <t>Not at all</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Nearly every day</t>
+          <t>Not at all</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Nearly every day</t>
+          <t>Not at all</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>More than half the days</t>
+          <t>Not at all</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>More than half the days</t>
+          <t>Not at all</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Several days </t>
+          <t>Not at all</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1261,281 +1257,7 @@
           <t>Not at all</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>With friends; they think I am abusive and selfish.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>tem</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Below 18</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Female </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Married  </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>businessman</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Secondary  </t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">With family  </t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Always</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yes, one or two  </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Often </t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Other: </t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loss of a loved one  ; Health problems  </t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Occasionally</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Occasionally</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Several days </t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>More than half the days</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>More than half the days</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Nearly every day</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Several days </t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Several days </t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>temp1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>18–30</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Male </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Single  </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Higher education</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">With family  </t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Never</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sometimes  </t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Referred by doctor/therapist  </t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Health problems  ; Job loss or financial stress  </t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>Not at all</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
